--- a/Antidemidovich_4.xlsx
+++ b/Antidemidovich_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\test_check\math_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7695FCE-EE80-461D-BB15-E54D4EFC496F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D0664-FBE2-46DD-85C5-87FAA0CD4E99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="390" windowWidth="14145" windowHeight="13530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
@@ -16069,12 +16069,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -16416,7 +16417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -16525,7 +16526,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -16536,7 +16537,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -16547,7 +16548,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -16559,13 +16560,13 @@
     <hyperlink ref="B3" location="'Часть 1'!A1" display="Метод сходимости числовых рядов одинакового знака" xr:uid="{C2CC1C58-EB0A-4B59-90EA-20F2997F7D69}"/>
     <hyperlink ref="B4" location="'Часть 2'!A1" display="Метод проверки сходимости рядов с изменяющимся знаком" xr:uid="{844EE4A2-FFCE-4B45-9122-9783582D4E09}"/>
     <hyperlink ref="B5" location="'Часть 3'!A1" display="Операции с рядами" xr:uid="{8F88277F-ADA4-48A5-83BB-B42D9A7B09B5}"/>
-    <hyperlink ref="B10" location="'Часть 9'!A1" display="Бесконечное произведение" xr:uid="{6B7750E1-7B2D-414F-8617-E255613C1CD7}"/>
     <hyperlink ref="B6" location="'Часть 4'!A1" display="Функциональный ряд" xr:uid="{645C762B-2D5E-45B4-BC44-105D5FEA5314}"/>
-    <hyperlink ref="B11" location="'Часть 10'!A1" display="Стирлингова формула" xr:uid="{285B3B6F-6ED3-403A-8BBA-D29DAF7F9C17}"/>
     <hyperlink ref="B7" location="'Часть 5'!A1" display="Висячая степень" xr:uid="{4EEBE7B2-CFCC-41A4-B1BA-073ECCE558DC}"/>
     <hyperlink ref="B8" location="'Часть 6'!A1" display="Фулинский уровень" xr:uid="{4A9BDE96-7B75-46E2-A43E-857C7D37B36E}"/>
     <hyperlink ref="B9" location="'Часть 7'!A1" display="Метод суммирования рядов" xr:uid="{C975B31A-96EF-4A26-B5A1-84A65567A187}"/>
-    <hyperlink ref="B12" location="'Часть 11'!A1" display="Использование полиномиального приближения непрерывных функций" xr:uid="{B0D0906D-3D0D-4C6F-A3FA-3FC83D12CE06}"/>
+    <hyperlink ref="B10" location="'Часть 8'!A1" display="Бесконечное произведение" xr:uid="{61CC6C16-2F70-4E1E-ACEC-6D1DD9357F8F}"/>
+    <hyperlink ref="B11" location="'Часть 9'!A1" display="Стирлингова формула" xr:uid="{60AC7F3B-966E-4175-BF8E-44AB9EFCF38A}"/>
+    <hyperlink ref="B12" location="'Часть 10'!A1" display="Использование полиномиального приближения непрерывных функций" xr:uid="{20718842-53A8-4E7F-B2C8-B1EB41BEBADB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19187,9 +19188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7918EE17-8501-469D-83B4-33599C6141B1}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
